--- a/Optymalizacja/lab2-analiza/xlsx2.xlsx
+++ b/Optymalizacja/lab2-analiza/xlsx2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5E6E78-F6A7-45F0-93F0-7ED68034D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64956E4-AAC0-45D9-8D78-4E84B5D88BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="39">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B103" s="21">
         <v>1</v>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="42">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="B203" s="20">
         <v>1</v>
@@ -13922,7 +13922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
